--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_11.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_11.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mikako Nakamura</t>
+          <t>Maaya Watanabe</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mikako Nakamura</t>
+          <t>Maaya Watanabe</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mikako Nakamura</t>
+          <t>Maaya Watanabe</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mikako Nakamura</t>
+          <t>Maaya Watanabe</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mikako Nakamura</t>
+          <t>Maaya Watanabe</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mikako Nakamura</t>
+          <t>Maaya Watanabe</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mikako Nakamura</t>
+          <t>Maaya Watanabe</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mikako Nakamura</t>
+          <t>Maaya Watanabe</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mikako Nakamura</t>
+          <t>Maaya Watanabe</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mikako Nakamura</t>
+          <t>Maaya Watanabe</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mikako Nakamura</t>
+          <t>Maaya Watanabe</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mikako Nakamura</t>
+          <t>Maaya Watanabe</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mikako Nakamura</t>
+          <t>Maaya Watanabe</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mikako Nakamura</t>
+          <t>Maaya Watanabe</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mikako Nakamura</t>
+          <t>Maaya Watanabe</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
